--- a/CDDGedeoner/src/test/resources/DataNew.xlsx
+++ b/CDDGedeoner/src/test/resources/DataNew.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.dulce\git\pcm\basic-testing-project\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.dulce\git\pcm\CDDGedeoner\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE6BCEE-FFF9-467C-A4EF-38A02B1A242B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCF2F21-FA9E-4BD2-B496-5447C7EB8B0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>//LABEL[@class='errorCls']</t>
   </si>
   <si>
-    <t>El usuario no esta registrado o la clave introducida es incorrecta</t>
-  </si>
-  <si>
     <t>testLoginErrPass</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>testQueryEvent</t>
   </si>
   <si>
-    <t>dhtmlgoodies_tree</t>
-  </si>
-  <si>
     <t>466399#apagaaa</t>
   </si>
   <si>
@@ -154,6 +148,12 @@
   </si>
   <si>
     <t>Bienvenid@ Administrador site, comience a navegar por el menú de servicios</t>
+  </si>
+  <si>
+    <t>El usuario no está registrado o la clave introducida es incorrecta</t>
+  </si>
+  <si>
+    <t>menuSup</t>
   </si>
 </sst>
 </file>
@@ -642,7 +642,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,10 +685,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
@@ -753,7 +753,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -792,7 +792,7 @@
     </row>
     <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>13</v>
@@ -813,7 +813,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -852,28 +852,28 @@
     </row>
     <row r="8" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -885,28 +885,28 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>9</v>
@@ -920,40 +920,40 @@
     </row>
     <row r="10" spans="1:12" ht="29.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -986,7 +986,7 @@
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.3">

--- a/CDDGedeoner/src/test/resources/DataNew.xlsx
+++ b/CDDGedeoner/src/test/resources/DataNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.dulce\git\pcm\CDDGedeoner\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCF2F21-FA9E-4BD2-B496-5447C7EB8B0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2872AF73-A912-4766-8657-A931B11AC89E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,18 +126,12 @@
     <t>&lt;li&gt;&lt;a class="dropdown-item" href="prjManager?event=ConsultaPeticionesGEDEON.query"&gt;Peticiones importadas&lt;/a&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>//A[@href='prjManager?event=ConsultaPeticionesGEDEON.query']</t>
-  </si>
-  <si>
     <t>//A[@id='seguimiento']</t>
   </si>
   <si>
     <t>peticionesSel.id0</t>
   </si>
   <si>
-    <t>/CDDGedeoner/prjManager</t>
-  </si>
-  <si>
     <t>http://localhost:8080</t>
   </si>
   <si>
@@ -154,6 +148,12 @@
   </si>
   <si>
     <t>menuSup</t>
+  </si>
+  <si>
+    <t>/gedeoner/dispatch</t>
+  </si>
+  <si>
+    <t>//A[@href='dispatch?event=ConsultaPeticionesGEDEON.query']</t>
   </si>
 </sst>
 </file>
@@ -642,7 +642,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,15 +680,15 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
@@ -753,7 +753,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -813,7 +813,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -858,13 +858,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>16</v>
@@ -873,7 +873,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -926,19 +926,19 @@
         <v>21</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>31</v>
@@ -950,7 +950,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>30</v>

--- a/CDDGedeoner/src/test/resources/DataNew.xlsx
+++ b/CDDGedeoner/src/test/resources/DataNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.dulce\git\pcm\CDDGedeoner\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2872AF73-A912-4766-8657-A931B11AC89E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B27C54-C6C3-4604-B20E-7BA0F394AC41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t>Servidor</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>peticiones.id</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;a class="dropdown-item" href="prjManager?event=ConsultaPeticionesGEDEON.query"&gt;Peticiones importadas&lt;/a&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>//A[@id='seguimiento']</t>
@@ -642,7 +639,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,10 +682,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
@@ -753,7 +750,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -813,7 +810,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -858,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>16</v>
@@ -873,7 +870,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -926,19 +923,19 @@
         <v>21</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>31</v>
@@ -950,7 +947,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>30</v>
@@ -985,9 +982,7 @@
       <c r="L12" s="6"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G17" s="13" t="s">
-        <v>32</v>
-      </c>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G18" s="12"/>
@@ -995,10 +990,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G17" r:id="rId2" display="http://localhost:8080/CDDGedeoner/prjManager?event=ConsultaPeticionesGEDEON.query" xr:uid="{527F3519-4F5E-461D-B815-541463112E72}"/>
-    <hyperlink ref="H8" r:id="rId3" xr:uid="{A155524B-E4AA-42F7-9A98-D32C6AD480C0}"/>
+    <hyperlink ref="H8" r:id="rId2" xr:uid="{A155524B-E4AA-42F7-9A98-D32C6AD480C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/CDDGedeoner/src/test/resources/DataNew.xlsx
+++ b/CDDGedeoner/src/test/resources/DataNew.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.dulce\git\pcm\CDDGedeoner\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B27C54-C6C3-4604-B20E-7BA0F394AC41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE07D277-9488-479E-A545-7ACBC506B166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="624" windowWidth="23016" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -135,9 +135,6 @@
     <t>ad</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>Bienvenid@ Administrador site, comience a navegar por el menú de servicios</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>//A[@href='dispatch?event=ConsultaPeticionesGEDEON.query']</t>
+  </si>
+  <si>
+    <t>babelsi2020</t>
   </si>
 </sst>
 </file>
@@ -639,7 +639,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,7 +685,7 @@
         <v>34</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
@@ -750,7 +750,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -810,7 +810,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -861,7 +861,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>16</v>
@@ -870,7 +870,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -923,7 +923,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>23</v>
@@ -935,7 +935,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>31</v>

--- a/CDDGedeoner/src/test/resources/DataNew.xlsx
+++ b/CDDGedeoner/src/test/resources/DataNew.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.dulce\git\pcm\CDDGedeoner\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE07D277-9488-479E-A545-7ACBC506B166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3D89F5-D22F-492B-94A2-594577517B72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="624" windowWidth="23016" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
     <t>Servidor</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>http://localhost:8080</t>
-  </si>
-  <si>
-    <t>ad</t>
   </si>
   <si>
     <t>Bienvenid@ Administrador site, comience a navegar por el menú de servicios</t>
@@ -639,7 +636,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,7 +682,7 @@
         <v>34</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
@@ -750,7 +747,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -810,7 +807,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -855,13 +852,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>16</v>
@@ -870,7 +867,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -923,7 +920,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>23</v>
@@ -935,7 +932,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>31</v>

--- a/CDDGedeoner/src/test/resources/DataNew.xlsx
+++ b/CDDGedeoner/src/test/resources/DataNew.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.dulce\git\pcm\CDDGedeoner\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3D89F5-D22F-492B-94A2-594577517B72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="23010" windowHeight="12330" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -129,9 +123,6 @@
     <t>peticionesSel.id0</t>
   </si>
   <si>
-    <t>http://localhost:8080</t>
-  </si>
-  <si>
     <t>Bienvenid@ Administrador site, comience a navegar por el menú de servicios</t>
   </si>
   <si>
@@ -148,12 +139,15 @@
   </si>
   <si>
     <t>babelsi2020</t>
+  </si>
+  <si>
+    <t>http://localhost:8082</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -252,7 +246,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -625,36 +619,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.21875" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="33.88671875" customWidth="1"/>
-    <col min="8" max="8" width="35.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
-    <col min="11" max="11" width="25.21875" customWidth="1"/>
-    <col min="12" max="12" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -674,15 +668,15 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
@@ -694,7 +688,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -724,7 +718,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
@@ -747,14 +741,14 @@
         <v>17</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -784,7 +778,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
@@ -807,14 +801,14 @@
         <v>17</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -844,7 +838,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
@@ -858,7 +852,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>16</v>
@@ -867,14 +861,14 @@
         <v>20</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -912,7 +906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="29.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>28</v>
       </c>
@@ -920,7 +914,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>23</v>
@@ -932,7 +926,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>31</v>
@@ -950,7 +944,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -964,7 +958,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -978,16 +972,16 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H8" r:id="rId2" xr:uid="{A155524B-E4AA-42F7-9A98-D32C6AD480C0}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="H8" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/CDDGedeoner/src/test/resources/DataNew.xlsx
+++ b/CDDGedeoner/src/test/resources/DataNew.xlsx
@@ -108,12 +108,6 @@
     <t>testQueryEvent</t>
   </si>
   <si>
-    <t>466399#apagaaa</t>
-  </si>
-  <si>
-    <t>466399</t>
-  </si>
-  <si>
     <t>peticiones.id</t>
   </si>
   <si>
@@ -142,6 +136,12 @@
   </si>
   <si>
     <t>http://localhost:8082</t>
+  </si>
+  <si>
+    <t>1029497#apagaaa</t>
+  </si>
+  <si>
+    <t>1029497</t>
   </si>
 </sst>
 </file>
@@ -619,7 +619,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,10 +673,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
@@ -741,7 +741,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -801,7 +801,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -852,7 +852,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>16</v>
@@ -861,7 +861,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -914,34 +914,34 @@
         <v>21</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
